--- a/expertSystemDesgin/heroes_info.xlsx
+++ b/expertSystemDesgin/heroes_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharmProject\PyQt5Design\expertSystemDesgin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED431FD-EE05-42D5-AF95-4C8ADE9FB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC088D-0CD8-4D73-9F58-B50864D2AC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CBA2E68F-DD08-4BA3-805E-FF355E5789A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="119">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,18 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>partners</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parters_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿古朵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,22 +85,6 @@
   </si>
   <si>
     <t>嫦娥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙膑 周瑜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5 0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙膑 杨玉环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75 0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -900,15 +873,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA576D4-2118-45F9-BFCA-2638DF753ED0}">
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,17 +912,8 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -957,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0.75</v>
@@ -980,17 +944,8 @@
       <c r="J2">
         <v>-0.72</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -998,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0.98</v>
@@ -1021,11 +976,8 @@
       <c r="J3">
         <v>0.02</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1033,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.4</v>
@@ -1056,11 +1008,8 @@
       <c r="J4">
         <v>0.45</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1068,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>0.71</v>
@@ -1091,11 +1040,8 @@
       <c r="J5">
         <v>0.09</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1103,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0.62</v>
@@ -1126,11 +1072,8 @@
       <c r="J6">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1138,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>0.7</v>
@@ -1161,11 +1104,8 @@
       <c r="J7">
         <v>-0.35</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1173,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0.3</v>
@@ -1196,11 +1136,8 @@
       <c r="J8">
         <v>0.49</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1208,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>0.68</v>
@@ -1231,11 +1168,8 @@
       <c r="J9">
         <v>0.09</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1243,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>0.57999999999999996</v>
@@ -1266,11 +1200,8 @@
       <c r="J10">
         <v>0.34</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1278,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>-0.79</v>
@@ -1301,11 +1232,8 @@
       <c r="J11">
         <v>0.21</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1313,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>0.95</v>
@@ -1336,11 +1264,8 @@
       <c r="J12">
         <v>0.45</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1348,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>0.89</v>
@@ -1371,11 +1296,8 @@
       <c r="J13">
         <v>0.39</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1383,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>-0.45</v>
@@ -1406,11 +1328,8 @@
       <c r="J14">
         <v>0.88</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1418,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>-0.91</v>
@@ -1441,11 +1360,8 @@
       <c r="J15">
         <v>0.51</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1453,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>0.88</v>
@@ -1476,11 +1392,8 @@
       <c r="J16">
         <v>0.15</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1488,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0.33</v>
@@ -1511,11 +1424,8 @@
       <c r="J17">
         <v>-0.17</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1523,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>0.43</v>
@@ -1546,11 +1456,8 @@
       <c r="J18">
         <v>0.25</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1558,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>0.39</v>
@@ -1581,11 +1488,8 @@
       <c r="J19">
         <v>0.91</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1593,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>0.31</v>
@@ -1616,11 +1520,8 @@
       <c r="J20">
         <v>0.34</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1628,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>-0.9</v>
@@ -1651,11 +1552,8 @@
       <c r="J21">
         <v>0.85</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1663,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>0.51</v>
@@ -1686,11 +1584,8 @@
       <c r="J22">
         <v>0.75</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1698,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>0.77</v>
@@ -1721,11 +1616,8 @@
       <c r="J23">
         <v>0.34</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1733,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>-0.9</v>
@@ -1756,11 +1648,8 @@
       <c r="J24">
         <v>0.9</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1768,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0.6</v>
@@ -1791,17 +1680,8 @@
       <c r="J25">
         <v>-0.1</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1809,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>0.65</v>
@@ -1832,11 +1712,8 @@
       <c r="J26">
         <v>0.23</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1844,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>0.21</v>
@@ -1867,11 +1744,8 @@
       <c r="J27">
         <v>0.91</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1879,7 +1753,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D28">
         <v>-0.19</v>
@@ -1902,11 +1776,8 @@
       <c r="J28">
         <v>0.47</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1914,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>0.61</v>
@@ -1937,11 +1808,8 @@
       <c r="J29">
         <v>0.25</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1949,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>0.54</v>
@@ -1972,11 +1840,8 @@
       <c r="J30">
         <v>0.91</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1984,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>0.44</v>
@@ -2007,11 +1872,8 @@
       <c r="J31">
         <v>0.23</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2019,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>0.55000000000000004</v>
@@ -2042,11 +1904,8 @@
       <c r="J32">
         <v>0.75</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2054,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>0.24</v>
@@ -2077,11 +1936,8 @@
       <c r="J33">
         <v>0.78</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2089,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>0.43</v>
@@ -2112,11 +1968,8 @@
       <c r="J34">
         <v>0.7</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2124,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>0.39</v>
@@ -2147,11 +2000,8 @@
       <c r="J35">
         <v>0.68</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2159,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D36">
         <v>0.87</v>
@@ -2182,11 +2032,8 @@
       <c r="J36">
         <v>0.75</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2194,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>0.27</v>
@@ -2217,11 +2064,8 @@
       <c r="J37">
         <v>0.65</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2229,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <v>0.27</v>
@@ -2252,11 +2096,8 @@
       <c r="J38">
         <v>0.77</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2264,7 +2105,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>0.23</v>
@@ -2287,11 +2128,8 @@
       <c r="J39">
         <v>0.65</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2299,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D40">
         <v>0.45</v>
@@ -2322,11 +2160,8 @@
       <c r="J40">
         <v>0.95</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2334,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D41">
         <v>0.56000000000000005</v>
@@ -2357,11 +2192,8 @@
       <c r="J41">
         <v>0.9</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2369,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D42">
         <v>0.23</v>
@@ -2392,11 +2224,8 @@
       <c r="J42">
         <v>0.68</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2404,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D43">
         <v>0.77</v>
@@ -2427,11 +2256,8 @@
       <c r="J43">
         <v>0.85</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2439,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D44">
         <v>0.45</v>
@@ -2462,11 +2288,8 @@
       <c r="J44">
         <v>0.85</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2474,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D45">
         <v>0.45</v>
@@ -2497,11 +2320,8 @@
       <c r="J45">
         <v>0.75</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2509,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>-0.2</v>
@@ -2532,11 +2352,8 @@
       <c r="J46">
         <v>-0.6</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2544,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>0.14000000000000001</v>
@@ -2567,11 +2384,8 @@
       <c r="J47">
         <v>0.21</v>
       </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2579,7 +2393,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D48">
         <v>0.45</v>
@@ -2602,11 +2416,8 @@
       <c r="J48">
         <v>0.85</v>
       </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2614,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D49">
         <v>0.85</v>
@@ -2637,11 +2448,8 @@
       <c r="J49">
         <v>0.85</v>
       </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2649,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D50">
         <v>0.45</v>
@@ -2672,11 +2480,8 @@
       <c r="J50">
         <v>0.85</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2684,7 +2489,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D51">
         <v>0.45</v>
@@ -2707,11 +2512,8 @@
       <c r="J51">
         <v>0.85</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2719,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D52">
         <v>0.05</v>
@@ -2742,11 +2544,8 @@
       <c r="J52">
         <v>-0.5</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2754,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D53">
         <v>0.95</v>
@@ -2777,11 +2576,8 @@
       <c r="J53">
         <v>-0.5</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2789,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D54">
         <v>0.05</v>
@@ -2812,11 +2608,8 @@
       <c r="J54">
         <v>-0.5</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2824,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D55">
         <v>0.05</v>
@@ -2847,11 +2640,8 @@
       <c r="J55">
         <v>-0.5</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2859,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <v>0.68</v>
@@ -2882,11 +2672,8 @@
       <c r="J56">
         <v>-0.5</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2894,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D57">
         <v>-0.8</v>
@@ -2917,11 +2704,8 @@
       <c r="J57">
         <v>-0.5</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2929,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D58">
         <v>-0.8</v>
@@ -2952,11 +2736,8 @@
       <c r="J58">
         <v>-0.5</v>
       </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2964,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D59">
         <v>-0.8</v>
@@ -2987,11 +2768,8 @@
       <c r="J59">
         <v>-0.5</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2999,7 +2777,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D60">
         <v>-0.8</v>
@@ -3022,11 +2800,8 @@
       <c r="J60">
         <v>-0.5</v>
       </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3034,7 +2809,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D61">
         <v>-0.8</v>
@@ -3057,11 +2832,8 @@
       <c r="J61">
         <v>-0.5</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3069,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <v>-0.8</v>
@@ -3092,11 +2864,8 @@
       <c r="J62">
         <v>-0.5</v>
       </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3104,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D63">
         <v>-0.8</v>
@@ -3127,11 +2896,8 @@
       <c r="J63">
         <v>-0.5</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3139,7 +2905,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>-0.8</v>
@@ -3162,11 +2928,8 @@
       <c r="J64">
         <v>-0.4</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3174,7 +2937,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>-0.5</v>
@@ -3197,11 +2960,8 @@
       <c r="J65">
         <v>-0.5</v>
       </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3209,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>0.75</v>
@@ -3232,11 +2992,8 @@
       <c r="J66">
         <v>-0.3</v>
       </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3244,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D67">
         <v>-0.8</v>
@@ -3267,11 +3024,8 @@
       <c r="J67">
         <v>-0.3</v>
       </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3279,7 +3033,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <v>-0.8</v>
@@ -3302,11 +3056,8 @@
       <c r="J68">
         <v>-0.5</v>
       </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3314,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>-0.8</v>
@@ -3337,11 +3088,8 @@
       <c r="J69">
         <v>-0.5</v>
       </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3349,7 +3097,7 @@
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <v>-0.8</v>
@@ -3372,11 +3120,8 @@
       <c r="J70">
         <v>-0.5</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3384,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D71">
         <v>0.51</v>
@@ -3407,11 +3152,8 @@
       <c r="J71">
         <v>-0.4</v>
       </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3419,7 +3161,7 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>-0.8</v>
@@ -3442,11 +3184,8 @@
       <c r="J72">
         <v>-0.3</v>
       </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3454,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D73">
         <v>0.65</v>
@@ -3477,11 +3216,8 @@
       <c r="J73">
         <v>0.1</v>
       </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3489,7 +3225,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D74">
         <v>0.2</v>
@@ -3512,11 +3248,8 @@
       <c r="J74">
         <v>-0.7</v>
       </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3524,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D75">
         <v>0.2</v>
@@ -3547,11 +3280,8 @@
       <c r="J75">
         <v>-0.5</v>
       </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3559,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D76">
         <v>0.2</v>
@@ -3582,11 +3312,8 @@
       <c r="J76">
         <v>-0.8</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3594,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D77">
         <v>0.65</v>
@@ -3617,11 +3344,8 @@
       <c r="J77">
         <v>0.75</v>
       </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3629,7 +3353,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D78">
         <v>0.3</v>
@@ -3652,11 +3376,8 @@
       <c r="J78">
         <v>-0.8</v>
       </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3664,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D79">
         <v>0.2</v>
@@ -3687,11 +3408,8 @@
       <c r="J79">
         <v>-0.8</v>
       </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3699,7 +3417,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D80">
         <v>0.2</v>
@@ -3722,11 +3440,8 @@
       <c r="J80">
         <v>0.35</v>
       </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3734,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D81">
         <v>0.2</v>
@@ -3757,11 +3472,8 @@
       <c r="J81">
         <v>-0.8</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3769,7 +3481,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D82">
         <v>0.2</v>
@@ -3792,11 +3504,8 @@
       <c r="J82">
         <v>0.65</v>
       </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3804,7 +3513,7 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D83">
         <v>0.5</v>
@@ -3827,11 +3536,8 @@
       <c r="J83">
         <v>0.35</v>
       </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3839,7 +3545,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D84">
         <v>0.2</v>
@@ -3862,11 +3568,8 @@
       <c r="J84">
         <v>0.35</v>
       </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3874,7 +3577,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D85">
         <v>0.2</v>
@@ -3897,11 +3600,8 @@
       <c r="J85">
         <v>0.2</v>
       </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3909,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>0.28000000000000003</v>
@@ -3932,11 +3632,8 @@
       <c r="J86">
         <v>-0.67</v>
       </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3944,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D87">
         <v>0.69</v>
@@ -3967,11 +3664,8 @@
       <c r="J87">
         <v>-0.79</v>
       </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3979,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>-0.4</v>
@@ -4002,11 +3696,8 @@
       <c r="J88">
         <v>0.35</v>
       </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4014,7 +3705,7 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D89">
         <v>-0.93</v>
@@ -4037,11 +3728,8 @@
       <c r="J89">
         <v>-0.45</v>
       </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4049,7 +3737,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D90">
         <v>-0.87</v>
@@ -4072,11 +3760,8 @@
       <c r="J90">
         <v>-0.37</v>
       </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4084,7 +3769,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D91">
         <v>-0.85</v>
@@ -4107,11 +3792,8 @@
       <c r="J91">
         <v>-0.67</v>
       </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4119,7 +3801,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D92">
         <v>0.23</v>
@@ -4142,11 +3824,8 @@
       <c r="J92">
         <v>-0.24</v>
       </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4154,7 +3833,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D93">
         <v>-0.75</v>
@@ -4177,11 +3856,8 @@
       <c r="J93">
         <v>-0.34</v>
       </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4189,7 +3865,7 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <v>0.45</v>
@@ -4212,11 +3888,8 @@
       <c r="J94">
         <v>0.9</v>
       </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4224,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>-0.8</v>
@@ -4247,11 +3920,8 @@
       <c r="J95">
         <v>-0.9</v>
       </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4259,7 +3929,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D96">
         <v>0.95</v>
@@ -4282,11 +3952,8 @@
       <c r="J96">
         <v>-0.7</v>
       </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4294,7 +3961,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D97">
         <v>0.85</v>
@@ -4317,11 +3984,8 @@
       <c r="J97">
         <v>0.75</v>
       </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4329,7 +3993,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D98">
         <v>-0.8</v>
@@ -4352,11 +4016,8 @@
       <c r="J98">
         <v>0.75</v>
       </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4364,7 +4025,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D99">
         <v>-0.8</v>
@@ -4387,11 +4048,8 @@
       <c r="J99">
         <v>0.65</v>
       </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4399,7 +4057,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D100">
         <v>0.65</v>
@@ -4422,11 +4080,8 @@
       <c r="J100">
         <v>0.2</v>
       </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4434,7 +4089,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D101">
         <v>0.95</v>
@@ -4457,11 +4112,8 @@
       <c r="J101">
         <v>0.6</v>
       </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4469,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D102">
         <v>0.85</v>
@@ -4492,11 +4144,8 @@
       <c r="J102">
         <v>0.2</v>
       </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4504,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D103">
         <v>0.68</v>
@@ -4527,11 +4176,8 @@
       <c r="J103">
         <v>0.65</v>
       </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4539,7 +4185,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D104">
         <v>0.67</v>
@@ -4562,11 +4208,8 @@
       <c r="J104">
         <v>0.79</v>
       </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4574,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D105">
         <v>0.21</v>
@@ -4597,11 +4240,8 @@
       <c r="J105">
         <v>0.68</v>
       </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4609,7 +4249,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D106">
         <v>0.5</v>
@@ -4632,11 +4272,8 @@
       <c r="J106">
         <v>0.65</v>
       </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4644,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D107">
         <v>-0.85</v>
@@ -4667,11 +4304,8 @@
       <c r="J107">
         <v>0.25</v>
       </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4679,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D108">
         <v>-0.81</v>
@@ -4702,11 +4336,8 @@
       <c r="J108">
         <v>-0.51</v>
       </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4714,7 +4345,7 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D109">
         <v>0.65</v>
@@ -4737,11 +4368,8 @@
       <c r="J109">
         <v>0.65</v>
       </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4749,7 +4377,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D110">
         <v>-0.9</v>
@@ -4771,9 +4399,6 @@
       </c>
       <c r="J110">
         <v>0.21</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4783,4 +4408,3540 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C975F40-D73D-496D-BB08-D0E1CFA5D654}">
+  <dimension ref="A1:J110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0.75</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+      <c r="F2">
+        <v>0.46</v>
+      </c>
+      <c r="G2">
+        <v>-0.15</v>
+      </c>
+      <c r="H2">
+        <v>0.8</v>
+      </c>
+      <c r="I2">
+        <v>-0.91</v>
+      </c>
+      <c r="J2">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>0.98</v>
+      </c>
+      <c r="E3">
+        <v>0.89</v>
+      </c>
+      <c r="F3">
+        <v>-0.89</v>
+      </c>
+      <c r="G3">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H3">
+        <v>-0.92</v>
+      </c>
+      <c r="I3">
+        <v>-0.91</v>
+      </c>
+      <c r="J3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+      <c r="E4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F4">
+        <v>0.79</v>
+      </c>
+      <c r="G4">
+        <v>-0.08</v>
+      </c>
+      <c r="H4">
+        <v>0.78</v>
+      </c>
+      <c r="I4">
+        <v>-0.95</v>
+      </c>
+      <c r="J4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0.71</v>
+      </c>
+      <c r="E5">
+        <v>0.72</v>
+      </c>
+      <c r="F5">
+        <v>0.74</v>
+      </c>
+      <c r="G5">
+        <v>0.17</v>
+      </c>
+      <c r="H5">
+        <v>-0.2</v>
+      </c>
+      <c r="I5">
+        <v>0.23</v>
+      </c>
+      <c r="J5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.62</v>
+      </c>
+      <c r="E6">
+        <v>0.71</v>
+      </c>
+      <c r="F6">
+        <v>0.54</v>
+      </c>
+      <c r="G6">
+        <v>0.98</v>
+      </c>
+      <c r="H6">
+        <v>0.27</v>
+      </c>
+      <c r="I6">
+        <v>-0.35</v>
+      </c>
+      <c r="J6">
+        <v>-0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.87</v>
+      </c>
+      <c r="F7">
+        <v>0.69</v>
+      </c>
+      <c r="G7">
+        <v>0.24</v>
+      </c>
+      <c r="H7">
+        <v>0.31</v>
+      </c>
+      <c r="I7">
+        <v>-0.86</v>
+      </c>
+      <c r="J7">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F8">
+        <v>0.72</v>
+      </c>
+      <c r="G8">
+        <v>-0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.73</v>
+      </c>
+      <c r="I8">
+        <v>-0.89</v>
+      </c>
+      <c r="J8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>0.68</v>
+      </c>
+      <c r="E9">
+        <v>0.91</v>
+      </c>
+      <c r="F9">
+        <v>-0.76</v>
+      </c>
+      <c r="G9">
+        <v>0.21</v>
+      </c>
+      <c r="H9">
+        <v>0.65</v>
+      </c>
+      <c r="I9">
+        <v>-0.24</v>
+      </c>
+      <c r="J9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="F10">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.08</v>
+      </c>
+      <c r="H10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I10">
+        <v>-0.65</v>
+      </c>
+      <c r="J10">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>-0.79</v>
+      </c>
+      <c r="E11">
+        <v>0.66</v>
+      </c>
+      <c r="F11">
+        <v>0.47</v>
+      </c>
+      <c r="G11">
+        <v>0.08</v>
+      </c>
+      <c r="H11">
+        <v>0.59</v>
+      </c>
+      <c r="I11">
+        <v>-0.91</v>
+      </c>
+      <c r="J11">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>0.95</v>
+      </c>
+      <c r="E12">
+        <v>0.95</v>
+      </c>
+      <c r="F12">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G12">
+        <v>-0.04</v>
+      </c>
+      <c r="H12">
+        <v>0.65</v>
+      </c>
+      <c r="I12">
+        <v>-0.91</v>
+      </c>
+      <c r="J12">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>0.89</v>
+      </c>
+      <c r="E13">
+        <v>0.63</v>
+      </c>
+      <c r="F13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G13">
+        <v>-0.16</v>
+      </c>
+      <c r="H13">
+        <v>-0.45</v>
+      </c>
+      <c r="I13">
+        <v>0.08</v>
+      </c>
+      <c r="J13">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>-0.45</v>
+      </c>
+      <c r="E14">
+        <v>0.66</v>
+      </c>
+      <c r="F14">
+        <v>0.43</v>
+      </c>
+      <c r="G14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.75</v>
+      </c>
+      <c r="I14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>-0.91</v>
+      </c>
+      <c r="E15">
+        <v>0.68</v>
+      </c>
+      <c r="F15">
+        <v>0.91</v>
+      </c>
+      <c r="G15">
+        <v>0.21</v>
+      </c>
+      <c r="H15">
+        <v>0.65</v>
+      </c>
+      <c r="I15">
+        <v>0.45</v>
+      </c>
+      <c r="J15">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>0.88</v>
+      </c>
+      <c r="E16">
+        <v>0.54</v>
+      </c>
+      <c r="F16">
+        <v>0.69</v>
+      </c>
+      <c r="G16">
+        <v>0.22</v>
+      </c>
+      <c r="H16">
+        <v>0.41</v>
+      </c>
+      <c r="I16">
+        <v>-0.82</v>
+      </c>
+      <c r="J16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0.33</v>
+      </c>
+      <c r="E17">
+        <v>0.92</v>
+      </c>
+      <c r="F17">
+        <v>-0.65</v>
+      </c>
+      <c r="G17">
+        <v>0.78</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17">
+        <v>-0.82</v>
+      </c>
+      <c r="J17">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18">
+        <v>0.43</v>
+      </c>
+      <c r="E18">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F18">
+        <v>0.75</v>
+      </c>
+      <c r="G18">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="H18">
+        <v>-0.9</v>
+      </c>
+      <c r="I18">
+        <v>0.59</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>0.39</v>
+      </c>
+      <c r="E19">
+        <v>0.38</v>
+      </c>
+      <c r="F19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G19">
+        <v>0.09</v>
+      </c>
+      <c r="H19">
+        <v>-0.9</v>
+      </c>
+      <c r="I19">
+        <v>0.43</v>
+      </c>
+      <c r="J19">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>0.31</v>
+      </c>
+      <c r="E20">
+        <v>0.59</v>
+      </c>
+      <c r="F20">
+        <v>-0.65</v>
+      </c>
+      <c r="G20">
+        <v>0.15</v>
+      </c>
+      <c r="H20">
+        <v>-0.59</v>
+      </c>
+      <c r="I20">
+        <v>0.85</v>
+      </c>
+      <c r="J20">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>-0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.65</v>
+      </c>
+      <c r="F21">
+        <v>0.39</v>
+      </c>
+      <c r="G21">
+        <v>0.6</v>
+      </c>
+      <c r="H21">
+        <v>0.24</v>
+      </c>
+      <c r="I21">
+        <v>-0.75</v>
+      </c>
+      <c r="J21">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>0.51</v>
+      </c>
+      <c r="E22">
+        <v>0.66</v>
+      </c>
+      <c r="F22">
+        <v>0.11</v>
+      </c>
+      <c r="G22">
+        <v>-0.4</v>
+      </c>
+      <c r="H22">
+        <v>0.44</v>
+      </c>
+      <c r="I22">
+        <v>0.34</v>
+      </c>
+      <c r="J22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>0.77</v>
+      </c>
+      <c r="E23">
+        <v>0.46</v>
+      </c>
+      <c r="F23">
+        <v>0.45</v>
+      </c>
+      <c r="G23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I23">
+        <v>0.09</v>
+      </c>
+      <c r="J23">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>-0.9</v>
+      </c>
+      <c r="E24">
+        <v>-0.9</v>
+      </c>
+      <c r="F24">
+        <v>0.95</v>
+      </c>
+      <c r="G24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H24">
+        <v>0.51</v>
+      </c>
+      <c r="I24">
+        <v>0.7</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0.6</v>
+      </c>
+      <c r="E25">
+        <v>0.6</v>
+      </c>
+      <c r="F25">
+        <v>-0.4</v>
+      </c>
+      <c r="G25">
+        <v>-0.4</v>
+      </c>
+      <c r="H25">
+        <v>-0.4</v>
+      </c>
+      <c r="I25">
+        <v>-0.7</v>
+      </c>
+      <c r="J25">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>0.65</v>
+      </c>
+      <c r="E26">
+        <v>0.61</v>
+      </c>
+      <c r="F26">
+        <v>0.61</v>
+      </c>
+      <c r="G26">
+        <v>0.51</v>
+      </c>
+      <c r="H26">
+        <v>0.09</v>
+      </c>
+      <c r="I26">
+        <v>-0.91</v>
+      </c>
+      <c r="J26">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>0.21</v>
+      </c>
+      <c r="E27">
+        <v>0.15</v>
+      </c>
+      <c r="F27">
+        <v>0.86</v>
+      </c>
+      <c r="G27">
+        <v>0.31</v>
+      </c>
+      <c r="H27">
+        <v>0.26</v>
+      </c>
+      <c r="I27">
+        <v>0.25</v>
+      </c>
+      <c r="J27">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>-0.19</v>
+      </c>
+      <c r="E28">
+        <v>0.15</v>
+      </c>
+      <c r="F28">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G28">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.24</v>
+      </c>
+      <c r="I28">
+        <v>-0.25</v>
+      </c>
+      <c r="J28">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>0.61</v>
+      </c>
+      <c r="E29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F29">
+        <v>0.59</v>
+      </c>
+      <c r="G29">
+        <v>-0.23</v>
+      </c>
+      <c r="H29">
+        <v>-0.3</v>
+      </c>
+      <c r="I29">
+        <v>-0.75</v>
+      </c>
+      <c r="J29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>0.54</v>
+      </c>
+      <c r="E30">
+        <v>0.24</v>
+      </c>
+      <c r="F30">
+        <v>-0.24</v>
+      </c>
+      <c r="G30">
+        <v>-0.21</v>
+      </c>
+      <c r="H30">
+        <v>0.09</v>
+      </c>
+      <c r="I30">
+        <v>0.22</v>
+      </c>
+      <c r="J30">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>0.44</v>
+      </c>
+      <c r="E31">
+        <v>0.22</v>
+      </c>
+      <c r="F31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G31">
+        <v>0.15</v>
+      </c>
+      <c r="H31">
+        <v>0.24</v>
+      </c>
+      <c r="I31">
+        <v>0.23</v>
+      </c>
+      <c r="J31">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E32">
+        <v>0.15</v>
+      </c>
+      <c r="F32">
+        <v>0.77</v>
+      </c>
+      <c r="G32">
+        <v>0.32</v>
+      </c>
+      <c r="H32">
+        <v>-0.25</v>
+      </c>
+      <c r="I32">
+        <v>0.45</v>
+      </c>
+      <c r="J32">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>0.24</v>
+      </c>
+      <c r="E33">
+        <v>0.23</v>
+      </c>
+      <c r="F33">
+        <v>0.81</v>
+      </c>
+      <c r="G33">
+        <v>0.25</v>
+      </c>
+      <c r="H33">
+        <v>0.09</v>
+      </c>
+      <c r="I33">
+        <v>-0.85</v>
+      </c>
+      <c r="J33">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>0.43</v>
+      </c>
+      <c r="E34">
+        <v>0.23</v>
+      </c>
+      <c r="F34">
+        <v>0.45</v>
+      </c>
+      <c r="G34">
+        <v>0.45</v>
+      </c>
+      <c r="H34">
+        <v>-0.44</v>
+      </c>
+      <c r="I34">
+        <v>-0.75</v>
+      </c>
+      <c r="J34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <v>0.39</v>
+      </c>
+      <c r="E35">
+        <v>0.42</v>
+      </c>
+      <c r="F35">
+        <v>0.45</v>
+      </c>
+      <c r="G35">
+        <v>0.15</v>
+      </c>
+      <c r="H35">
+        <v>0.45</v>
+      </c>
+      <c r="I35">
+        <v>0.32</v>
+      </c>
+      <c r="J35">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>0.87</v>
+      </c>
+      <c r="E36">
+        <v>0.15</v>
+      </c>
+      <c r="F36">
+        <v>0.77</v>
+      </c>
+      <c r="G36">
+        <v>0.15</v>
+      </c>
+      <c r="H36">
+        <v>0.23</v>
+      </c>
+      <c r="I36">
+        <v>-0.85</v>
+      </c>
+      <c r="J36">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <v>0.27</v>
+      </c>
+      <c r="E37">
+        <v>0.39</v>
+      </c>
+      <c r="F37">
+        <v>0.75</v>
+      </c>
+      <c r="G37">
+        <v>0.08</v>
+      </c>
+      <c r="H37">
+        <v>0.23</v>
+      </c>
+      <c r="I37">
+        <v>-0.85</v>
+      </c>
+      <c r="J37">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38">
+        <v>0.27</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <v>0.77</v>
+      </c>
+      <c r="G38">
+        <v>0.09</v>
+      </c>
+      <c r="H38">
+        <v>-0.5</v>
+      </c>
+      <c r="I38">
+        <v>-0.85</v>
+      </c>
+      <c r="J38">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>0.23</v>
+      </c>
+      <c r="E39">
+        <v>0.15</v>
+      </c>
+      <c r="F39">
+        <v>0.31</v>
+      </c>
+      <c r="G39">
+        <v>-0.24</v>
+      </c>
+      <c r="H39">
+        <v>0.45</v>
+      </c>
+      <c r="I39">
+        <v>0.12</v>
+      </c>
+      <c r="J39">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <v>0.45</v>
+      </c>
+      <c r="E40">
+        <v>0.15</v>
+      </c>
+      <c r="F40">
+        <v>0.31</v>
+      </c>
+      <c r="G40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.45</v>
+      </c>
+      <c r="I40">
+        <v>0.23</v>
+      </c>
+      <c r="J40">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E41">
+        <v>0.25</v>
+      </c>
+      <c r="F41">
+        <v>0.95</v>
+      </c>
+      <c r="G41">
+        <v>0.25</v>
+      </c>
+      <c r="H41">
+        <v>0.3</v>
+      </c>
+      <c r="I41">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <v>0.23</v>
+      </c>
+      <c r="E42">
+        <v>0.15</v>
+      </c>
+      <c r="F42">
+        <v>0.91</v>
+      </c>
+      <c r="G42">
+        <v>0.25</v>
+      </c>
+      <c r="H42">
+        <v>0.45</v>
+      </c>
+      <c r="I42">
+        <v>0.21</v>
+      </c>
+      <c r="J42">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>0.77</v>
+      </c>
+      <c r="E43">
+        <v>0.25</v>
+      </c>
+      <c r="F43">
+        <v>0.25</v>
+      </c>
+      <c r="G43">
+        <v>-0.25</v>
+      </c>
+      <c r="H43">
+        <v>0.45</v>
+      </c>
+      <c r="I43">
+        <v>-0.85</v>
+      </c>
+      <c r="J43">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44">
+        <v>0.45</v>
+      </c>
+      <c r="E44">
+        <v>0.05</v>
+      </c>
+      <c r="F44">
+        <v>0.45</v>
+      </c>
+      <c r="G44">
+        <v>-0.25</v>
+      </c>
+      <c r="H44">
+        <v>0.52</v>
+      </c>
+      <c r="I44">
+        <v>0.45</v>
+      </c>
+      <c r="J44">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45">
+        <v>0.45</v>
+      </c>
+      <c r="E45">
+        <v>0.15</v>
+      </c>
+      <c r="F45">
+        <v>0.86</v>
+      </c>
+      <c r="G45">
+        <v>0.46</v>
+      </c>
+      <c r="H45">
+        <v>-0.25</v>
+      </c>
+      <c r="I45">
+        <v>-0.66</v>
+      </c>
+      <c r="J45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>-0.2</v>
+      </c>
+      <c r="E46">
+        <v>0.6</v>
+      </c>
+      <c r="F46">
+        <v>0.7</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>-0.2</v>
+      </c>
+      <c r="I46">
+        <v>0.2</v>
+      </c>
+      <c r="J46">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E47">
+        <v>0.24</v>
+      </c>
+      <c r="F47">
+        <v>-0.65</v>
+      </c>
+      <c r="G47">
+        <v>-0.15</v>
+      </c>
+      <c r="H47">
+        <v>0.87</v>
+      </c>
+      <c r="I47">
+        <v>0.95</v>
+      </c>
+      <c r="J47">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48">
+        <v>0.45</v>
+      </c>
+      <c r="E48">
+        <v>-0.5</v>
+      </c>
+      <c r="F48">
+        <v>0.85</v>
+      </c>
+      <c r="G48">
+        <v>0.45</v>
+      </c>
+      <c r="H48">
+        <v>0.75</v>
+      </c>
+      <c r="I48">
+        <v>0.85</v>
+      </c>
+      <c r="J48">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49">
+        <v>0.85</v>
+      </c>
+      <c r="E49">
+        <v>-0.15</v>
+      </c>
+      <c r="F49">
+        <v>-0.4</v>
+      </c>
+      <c r="G49">
+        <v>0.95</v>
+      </c>
+      <c r="H49">
+        <v>-0.85</v>
+      </c>
+      <c r="I49">
+        <v>0.4</v>
+      </c>
+      <c r="J49">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50">
+        <v>0.45</v>
+      </c>
+      <c r="E50">
+        <v>-0.5</v>
+      </c>
+      <c r="F50">
+        <v>0.85</v>
+      </c>
+      <c r="G50">
+        <v>0.45</v>
+      </c>
+      <c r="H50">
+        <v>-0.85</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51">
+        <v>0.45</v>
+      </c>
+      <c r="E51">
+        <v>-0.5</v>
+      </c>
+      <c r="F51">
+        <v>0.75</v>
+      </c>
+      <c r="G51">
+        <v>0.34</v>
+      </c>
+      <c r="H51">
+        <v>0.45</v>
+      </c>
+      <c r="I51">
+        <v>-0.8</v>
+      </c>
+      <c r="J51">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52">
+        <v>0.05</v>
+      </c>
+      <c r="E52">
+        <v>-0.5</v>
+      </c>
+      <c r="F52">
+        <v>0.8</v>
+      </c>
+      <c r="G52">
+        <v>0.45</v>
+      </c>
+      <c r="H52">
+        <v>0.65</v>
+      </c>
+      <c r="I52">
+        <v>0.65</v>
+      </c>
+      <c r="J52">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53">
+        <v>0.95</v>
+      </c>
+      <c r="E53">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>-0.4</v>
+      </c>
+      <c r="G53">
+        <v>0.2</v>
+      </c>
+      <c r="H53">
+        <v>-0.48</v>
+      </c>
+      <c r="I53">
+        <v>0.65</v>
+      </c>
+      <c r="J53">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>0.05</v>
+      </c>
+      <c r="E54">
+        <v>-0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.95</v>
+      </c>
+      <c r="G54">
+        <v>0.2</v>
+      </c>
+      <c r="H54">
+        <v>0.7</v>
+      </c>
+      <c r="I54">
+        <v>-0.1</v>
+      </c>
+      <c r="J54">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>0.05</v>
+      </c>
+      <c r="E55">
+        <v>-0.5</v>
+      </c>
+      <c r="F55">
+        <v>0.91</v>
+      </c>
+      <c r="G55">
+        <v>0.35</v>
+      </c>
+      <c r="H55">
+        <v>-0.85</v>
+      </c>
+      <c r="I55">
+        <v>0.95</v>
+      </c>
+      <c r="J55">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56">
+        <v>0.68</v>
+      </c>
+      <c r="E56">
+        <v>0.1</v>
+      </c>
+      <c r="F56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G56">
+        <v>0.35</v>
+      </c>
+      <c r="H56">
+        <v>-0.24</v>
+      </c>
+      <c r="I56">
+        <v>-0.1</v>
+      </c>
+      <c r="J56">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57">
+        <v>-0.8</v>
+      </c>
+      <c r="E57">
+        <v>-0.5</v>
+      </c>
+      <c r="F57">
+        <v>0.4</v>
+      </c>
+      <c r="G57">
+        <v>0.75</v>
+      </c>
+      <c r="H57">
+        <v>0.65</v>
+      </c>
+      <c r="I57">
+        <v>0.95</v>
+      </c>
+      <c r="J57">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58">
+        <v>-0.8</v>
+      </c>
+      <c r="E58">
+        <v>-0.5</v>
+      </c>
+      <c r="F58">
+        <v>-0.24</v>
+      </c>
+      <c r="G58">
+        <v>0.08</v>
+      </c>
+      <c r="H58">
+        <v>0.92</v>
+      </c>
+      <c r="I58">
+        <v>0.68</v>
+      </c>
+      <c r="J58">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59">
+        <v>-0.8</v>
+      </c>
+      <c r="E59">
+        <v>-0.5</v>
+      </c>
+      <c r="F59">
+        <v>-0.25</v>
+      </c>
+      <c r="G59">
+        <v>0.08</v>
+      </c>
+      <c r="H59">
+        <v>0.35</v>
+      </c>
+      <c r="I59">
+        <v>0.08</v>
+      </c>
+      <c r="J59">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>84</v>
+      </c>
+      <c r="D60">
+        <v>-0.8</v>
+      </c>
+      <c r="E60">
+        <v>-0.5</v>
+      </c>
+      <c r="F60">
+        <v>0.89</v>
+      </c>
+      <c r="G60">
+        <v>0.35</v>
+      </c>
+      <c r="H60">
+        <v>0.15</v>
+      </c>
+      <c r="I60">
+        <v>0.85</v>
+      </c>
+      <c r="J60">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61">
+        <v>-0.8</v>
+      </c>
+      <c r="E61">
+        <v>-0.5</v>
+      </c>
+      <c r="F61">
+        <v>0.45</v>
+      </c>
+      <c r="G61">
+        <v>0.35</v>
+      </c>
+      <c r="H61">
+        <v>-0.8</v>
+      </c>
+      <c r="I61">
+        <v>0.95</v>
+      </c>
+      <c r="J61">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62">
+        <v>-0.8</v>
+      </c>
+      <c r="E62">
+        <v>-0.05</v>
+      </c>
+      <c r="F62">
+        <v>-0.5</v>
+      </c>
+      <c r="G62">
+        <v>0.08</v>
+      </c>
+      <c r="H62">
+        <v>0.85</v>
+      </c>
+      <c r="I62">
+        <v>0.65</v>
+      </c>
+      <c r="J62">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63">
+        <v>-0.8</v>
+      </c>
+      <c r="E63">
+        <v>-0.5</v>
+      </c>
+      <c r="F63">
+        <v>0.45</v>
+      </c>
+      <c r="G63">
+        <v>0.08</v>
+      </c>
+      <c r="H63">
+        <v>0.68</v>
+      </c>
+      <c r="I63">
+        <v>0.65</v>
+      </c>
+      <c r="J63">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64">
+        <v>-0.8</v>
+      </c>
+      <c r="E64">
+        <v>-0.05</v>
+      </c>
+      <c r="F64">
+        <v>-0.5</v>
+      </c>
+      <c r="G64">
+        <v>0.08</v>
+      </c>
+      <c r="H64">
+        <v>0.95</v>
+      </c>
+      <c r="I64">
+        <v>0.4</v>
+      </c>
+      <c r="J64">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65">
+        <v>-0.5</v>
+      </c>
+      <c r="E65">
+        <v>-0.5</v>
+      </c>
+      <c r="F65">
+        <v>0.75</v>
+      </c>
+      <c r="G65">
+        <v>0.35</v>
+      </c>
+      <c r="H65">
+        <v>0.75</v>
+      </c>
+      <c r="I65">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J65">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66">
+        <v>0.75</v>
+      </c>
+      <c r="E66">
+        <v>-0.5</v>
+      </c>
+      <c r="F66">
+        <v>-0.2</v>
+      </c>
+      <c r="G66">
+        <v>0.08</v>
+      </c>
+      <c r="H66">
+        <v>0.35</v>
+      </c>
+      <c r="I66">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J66">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67">
+        <v>-0.8</v>
+      </c>
+      <c r="E67">
+        <v>-0.1</v>
+      </c>
+      <c r="F67">
+        <v>-0.5</v>
+      </c>
+      <c r="G67">
+        <v>0.08</v>
+      </c>
+      <c r="H67">
+        <v>0.7</v>
+      </c>
+      <c r="I67">
+        <v>0.68</v>
+      </c>
+      <c r="J67">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68">
+        <v>-0.8</v>
+      </c>
+      <c r="E68">
+        <v>-0.5</v>
+      </c>
+      <c r="F68">
+        <v>-0.1</v>
+      </c>
+      <c r="G68">
+        <v>0.35</v>
+      </c>
+      <c r="H68">
+        <v>-0.85</v>
+      </c>
+      <c r="I68">
+        <v>0.9</v>
+      </c>
+      <c r="J68">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69">
+        <v>-0.8</v>
+      </c>
+      <c r="E69">
+        <v>0.1</v>
+      </c>
+      <c r="F69">
+        <v>0.3</v>
+      </c>
+      <c r="G69">
+        <v>0.4</v>
+      </c>
+      <c r="H69">
+        <v>0.95</v>
+      </c>
+      <c r="I69">
+        <v>0.68</v>
+      </c>
+      <c r="J69">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70">
+        <v>-0.8</v>
+      </c>
+      <c r="E70">
+        <v>-0.5</v>
+      </c>
+      <c r="F70">
+        <v>-0.5</v>
+      </c>
+      <c r="G70">
+        <v>0.08</v>
+      </c>
+      <c r="H70">
+        <v>0.89</v>
+      </c>
+      <c r="I70">
+        <v>0.43</v>
+      </c>
+      <c r="J70">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71">
+        <v>0.51</v>
+      </c>
+      <c r="E71">
+        <v>0.1</v>
+      </c>
+      <c r="F71">
+        <v>0.15</v>
+      </c>
+      <c r="G71">
+        <v>0.4</v>
+      </c>
+      <c r="H71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I71">
+        <v>0.75</v>
+      </c>
+      <c r="J71">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72">
+        <v>-0.8</v>
+      </c>
+      <c r="E72">
+        <v>-0.6</v>
+      </c>
+      <c r="F72">
+        <v>0.6</v>
+      </c>
+      <c r="G72">
+        <v>0.5</v>
+      </c>
+      <c r="H72">
+        <v>-0.8</v>
+      </c>
+      <c r="I72">
+        <v>0.9</v>
+      </c>
+      <c r="J72">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73">
+        <v>0.65</v>
+      </c>
+      <c r="E73">
+        <v>-0.5</v>
+      </c>
+      <c r="F73">
+        <v>0.2</v>
+      </c>
+      <c r="G73">
+        <v>-0.2</v>
+      </c>
+      <c r="H73">
+        <v>-0.8</v>
+      </c>
+      <c r="I73">
+        <v>0.75</v>
+      </c>
+      <c r="J73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74">
+        <v>0.2</v>
+      </c>
+      <c r="E74">
+        <v>-0.6</v>
+      </c>
+      <c r="F74">
+        <v>0.2</v>
+      </c>
+      <c r="G74">
+        <v>0.1</v>
+      </c>
+      <c r="H74">
+        <v>-0.9</v>
+      </c>
+      <c r="I74">
+        <v>0.65</v>
+      </c>
+      <c r="J74">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75">
+        <v>0.2</v>
+      </c>
+      <c r="E75">
+        <v>-0.5</v>
+      </c>
+      <c r="F75">
+        <v>0.3</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="H75">
+        <v>0.35</v>
+      </c>
+      <c r="I75">
+        <v>0.5</v>
+      </c>
+      <c r="J75">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76">
+        <v>0.2</v>
+      </c>
+      <c r="E76">
+        <v>-0.6</v>
+      </c>
+      <c r="F76">
+        <v>0.2</v>
+      </c>
+      <c r="G76">
+        <v>0.5</v>
+      </c>
+      <c r="H76">
+        <v>0.25</v>
+      </c>
+      <c r="I76">
+        <v>0.75</v>
+      </c>
+      <c r="J76">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77">
+        <v>0.65</v>
+      </c>
+      <c r="E77">
+        <v>-0.6</v>
+      </c>
+      <c r="F77">
+        <v>0.6</v>
+      </c>
+      <c r="G77">
+        <v>0.3</v>
+      </c>
+      <c r="H77">
+        <v>0.25</v>
+      </c>
+      <c r="I77">
+        <v>0.85</v>
+      </c>
+      <c r="J77">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78">
+        <v>0.3</v>
+      </c>
+      <c r="E78">
+        <v>-0.6</v>
+      </c>
+      <c r="F78">
+        <v>0.2</v>
+      </c>
+      <c r="G78">
+        <v>0.1</v>
+      </c>
+      <c r="H78">
+        <v>0.45</v>
+      </c>
+      <c r="I78">
+        <v>0.65</v>
+      </c>
+      <c r="J78">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79">
+        <v>0.2</v>
+      </c>
+      <c r="E79">
+        <v>-0.5</v>
+      </c>
+      <c r="F79">
+        <v>0.2</v>
+      </c>
+      <c r="G79">
+        <v>0.1</v>
+      </c>
+      <c r="H79">
+        <v>-0.8</v>
+      </c>
+      <c r="I79">
+        <v>0.75</v>
+      </c>
+      <c r="J79">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80">
+        <v>0.2</v>
+      </c>
+      <c r="E80">
+        <v>-0.6</v>
+      </c>
+      <c r="F80">
+        <v>0.5</v>
+      </c>
+      <c r="G80">
+        <v>0.2</v>
+      </c>
+      <c r="H80">
+        <v>-0.5</v>
+      </c>
+      <c r="I80">
+        <v>0.75</v>
+      </c>
+      <c r="J80">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81">
+        <v>0.2</v>
+      </c>
+      <c r="E81">
+        <v>-0.6</v>
+      </c>
+      <c r="F81">
+        <v>0.2</v>
+      </c>
+      <c r="G81">
+        <v>0.35</v>
+      </c>
+      <c r="H81">
+        <v>-0.5</v>
+      </c>
+      <c r="I81">
+        <v>0.8</v>
+      </c>
+      <c r="J81">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82">
+        <v>0.2</v>
+      </c>
+      <c r="E82">
+        <v>-0.5</v>
+      </c>
+      <c r="F82">
+        <v>0.5</v>
+      </c>
+      <c r="G82">
+        <v>0.95</v>
+      </c>
+      <c r="H82">
+        <v>-0.8</v>
+      </c>
+      <c r="I82">
+        <v>0.8</v>
+      </c>
+      <c r="J82">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83">
+        <v>0.5</v>
+      </c>
+      <c r="E83">
+        <v>-0.6</v>
+      </c>
+      <c r="F83">
+        <v>0.3</v>
+      </c>
+      <c r="G83">
+        <v>0.1</v>
+      </c>
+      <c r="H83">
+        <v>-0.8</v>
+      </c>
+      <c r="I83">
+        <v>0.65</v>
+      </c>
+      <c r="J83">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D84">
+        <v>0.2</v>
+      </c>
+      <c r="E84">
+        <v>-0.6</v>
+      </c>
+      <c r="F84">
+        <v>0.6</v>
+      </c>
+      <c r="G84">
+        <v>0.45</v>
+      </c>
+      <c r="H84">
+        <v>-0.5</v>
+      </c>
+      <c r="I84">
+        <v>0.75</v>
+      </c>
+      <c r="J84">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>108</v>
+      </c>
+      <c r="D85">
+        <v>0.2</v>
+      </c>
+      <c r="E85">
+        <v>-0.5</v>
+      </c>
+      <c r="F85">
+        <v>0.2</v>
+      </c>
+      <c r="G85">
+        <v>0.3</v>
+      </c>
+      <c r="H85">
+        <v>0.1</v>
+      </c>
+      <c r="I85">
+        <v>0.75</v>
+      </c>
+      <c r="J85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>-0.6</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0.91</v>
+      </c>
+      <c r="I86">
+        <v>-0.95</v>
+      </c>
+      <c r="J86">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87">
+        <v>0.69</v>
+      </c>
+      <c r="E87">
+        <v>0.92</v>
+      </c>
+      <c r="F87">
+        <v>-0.6</v>
+      </c>
+      <c r="G87">
+        <v>0.21</v>
+      </c>
+      <c r="H87">
+        <v>0.98</v>
+      </c>
+      <c r="I87">
+        <v>0.15</v>
+      </c>
+      <c r="J87">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88">
+        <v>-0.4</v>
+      </c>
+      <c r="E88">
+        <v>0.91</v>
+      </c>
+      <c r="F88">
+        <v>-0.6</v>
+      </c>
+      <c r="G88">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H88">
+        <v>0.87</v>
+      </c>
+      <c r="I88">
+        <v>-0.91</v>
+      </c>
+      <c r="J88">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89">
+        <v>-0.93</v>
+      </c>
+      <c r="E89">
+        <v>0.82</v>
+      </c>
+      <c r="F89">
+        <v>-0.6</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0.93</v>
+      </c>
+      <c r="I89">
+        <v>-0.95</v>
+      </c>
+      <c r="J89">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90">
+        <v>-0.87</v>
+      </c>
+      <c r="E90">
+        <v>0.85</v>
+      </c>
+      <c r="F90">
+        <v>-0.6</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0.86</v>
+      </c>
+      <c r="I90">
+        <v>-0.95</v>
+      </c>
+      <c r="J90">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91">
+        <v>-0.85</v>
+      </c>
+      <c r="E91">
+        <v>0.78</v>
+      </c>
+      <c r="F91">
+        <v>-0.6</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0.66</v>
+      </c>
+      <c r="I91">
+        <v>-0.87</v>
+      </c>
+      <c r="J91">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>0.23</v>
+      </c>
+      <c r="E92">
+        <v>0.85</v>
+      </c>
+      <c r="F92">
+        <v>-0.6</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0.72</v>
+      </c>
+      <c r="I92">
+        <v>-0.95</v>
+      </c>
+      <c r="J92">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>-0.75</v>
+      </c>
+      <c r="E93">
+        <v>0.95</v>
+      </c>
+      <c r="F93">
+        <v>-0.6</v>
+      </c>
+      <c r="G93">
+        <v>0.06</v>
+      </c>
+      <c r="H93">
+        <v>-0.9</v>
+      </c>
+      <c r="I93">
+        <v>0.03</v>
+      </c>
+      <c r="J93">
+        <v>-0.34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D94">
+        <v>0.45</v>
+      </c>
+      <c r="E94">
+        <v>0.6</v>
+      </c>
+      <c r="F94">
+        <v>-0.6</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0.6</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D95">
+        <v>-0.8</v>
+      </c>
+      <c r="E95">
+        <v>0.78</v>
+      </c>
+      <c r="F95">
+        <v>-0.6</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0.85</v>
+      </c>
+      <c r="I95">
+        <v>0.3</v>
+      </c>
+      <c r="J95">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96">
+        <v>0.95</v>
+      </c>
+      <c r="E96">
+        <v>0.68</v>
+      </c>
+      <c r="F96">
+        <v>-0.6</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0.3</v>
+      </c>
+      <c r="I96">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J96">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97">
+        <v>0.85</v>
+      </c>
+      <c r="E97">
+        <v>0.68</v>
+      </c>
+      <c r="F97">
+        <v>-0.6</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0.3</v>
+      </c>
+      <c r="I97">
+        <v>0.2</v>
+      </c>
+      <c r="J97">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98">
+        <v>-0.8</v>
+      </c>
+      <c r="E98">
+        <v>0.68</v>
+      </c>
+      <c r="F98">
+        <v>-0.6</v>
+      </c>
+      <c r="G98">
+        <v>0.45</v>
+      </c>
+      <c r="H98">
+        <v>0.78</v>
+      </c>
+      <c r="I98">
+        <v>0.2</v>
+      </c>
+      <c r="J98">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99">
+        <v>-0.8</v>
+      </c>
+      <c r="E99">
+        <v>0.93</v>
+      </c>
+      <c r="F99">
+        <v>-0.6</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0.8</v>
+      </c>
+      <c r="I99">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="J99">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100">
+        <v>0.65</v>
+      </c>
+      <c r="E100">
+        <v>0.75</v>
+      </c>
+      <c r="F100">
+        <v>-0.6</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>-0.5</v>
+      </c>
+      <c r="I100">
+        <v>0.3</v>
+      </c>
+      <c r="J100">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101">
+        <v>0.95</v>
+      </c>
+      <c r="E101">
+        <v>0.68</v>
+      </c>
+      <c r="F101">
+        <v>-0.6</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0.4</v>
+      </c>
+      <c r="I101">
+        <v>0.3</v>
+      </c>
+      <c r="J101">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102">
+        <v>0.85</v>
+      </c>
+      <c r="E102">
+        <v>0.68</v>
+      </c>
+      <c r="F102">
+        <v>-0.6</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I102">
+        <v>0.45</v>
+      </c>
+      <c r="J102">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>0.68</v>
+      </c>
+      <c r="E103">
+        <v>0.24</v>
+      </c>
+      <c r="F103">
+        <v>-0.68</v>
+      </c>
+      <c r="G103">
+        <v>0.49</v>
+      </c>
+      <c r="H103">
+        <v>-0.66</v>
+      </c>
+      <c r="I103">
+        <v>-0.06</v>
+      </c>
+      <c r="J103">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104">
+        <v>0.67</v>
+      </c>
+      <c r="E104">
+        <v>0.19</v>
+      </c>
+      <c r="F104">
+        <v>0.75</v>
+      </c>
+      <c r="G104">
+        <v>-0.34</v>
+      </c>
+      <c r="H104">
+        <v>0.15</v>
+      </c>
+      <c r="I104">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J104">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105">
+        <v>0.21</v>
+      </c>
+      <c r="E105">
+        <v>0.42</v>
+      </c>
+      <c r="F105">
+        <v>0.45</v>
+      </c>
+      <c r="G105">
+        <v>0.15</v>
+      </c>
+      <c r="H105">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="I105">
+        <v>0.32</v>
+      </c>
+      <c r="J105">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+      <c r="E106">
+        <v>-0.5</v>
+      </c>
+      <c r="F106">
+        <v>0.75</v>
+      </c>
+      <c r="G106">
+        <v>0.08</v>
+      </c>
+      <c r="H106">
+        <v>-0.8</v>
+      </c>
+      <c r="I106">
+        <v>0.65</v>
+      </c>
+      <c r="J106">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>-0.85</v>
+      </c>
+      <c r="E107">
+        <v>0.95</v>
+      </c>
+      <c r="F107">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G107">
+        <v>-0.67</v>
+      </c>
+      <c r="H107">
+        <v>0.21</v>
+      </c>
+      <c r="I107">
+        <v>-0.82</v>
+      </c>
+      <c r="J107">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108">
+        <v>-0.81</v>
+      </c>
+      <c r="E108">
+        <v>0.96</v>
+      </c>
+      <c r="F108">
+        <v>0.63</v>
+      </c>
+      <c r="G108">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.59</v>
+      </c>
+      <c r="I108">
+        <v>-0.91</v>
+      </c>
+      <c r="J108">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>41</v>
+      </c>
+      <c r="D109">
+        <v>0.65</v>
+      </c>
+      <c r="E109">
+        <v>0.6</v>
+      </c>
+      <c r="F109">
+        <v>0.78</v>
+      </c>
+      <c r="G109">
+        <v>0.21</v>
+      </c>
+      <c r="H109">
+        <v>0.65</v>
+      </c>
+      <c r="I109">
+        <v>0.38</v>
+      </c>
+      <c r="J109">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110">
+        <v>-0.9</v>
+      </c>
+      <c r="E110">
+        <v>0.91</v>
+      </c>
+      <c r="F110">
+        <v>0.21</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0.69</v>
+      </c>
+      <c r="I110">
+        <v>-0.87</v>
+      </c>
+      <c r="J110">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>